--- a/Output/roaming_impact_reports_per_acct/Zoll_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Zoll_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,218 +483,321 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>745</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>89.7</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.110.0.5</t>
+          <t>Realtek RTL8852AE WiFi 6 802.11ax PCIe Adapter - 6001.10.356.0</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8723</v>
+        <v>161</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>97.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Realtek RTL8852AE WiFi 6 802.11ax PCIe Adapter - 6001.10.356.0</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>589</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>98.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n">
-        <v>31</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>10057</v>
-      </c>
-    </row>
+      <c r="B5" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6"/>
     <row r="7"/>
     <row r="8"/>
     <row r="9"/>
     <row r="10"/>
-    <row r="11"/>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+        </is>
+      </c>
+    </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Adapter-Driver</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Total Samples</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr"/>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Good Roaming Calculation (%)</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Driver Vintage</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
-        </is>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>96526</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>392601</v>
+        <v>328411</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
-        </is>
+      <c r="E14" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>74604</v>
+        <v>143808</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>2021-08-18</t>
-        </is>
+      <c r="E15" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>33050</v>
+        <v>287148</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>2021-04-27</t>
-        </is>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>59673</v>
+        <v>69578</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>2020-08-05</t>
-        </is>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>107862</v>
+        <v>67111</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>2020-01-06</t>
-        </is>
+      <c r="E18" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>56018</v>
+        <v>13016</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>2019-12-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
+      <c r="E19" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>18721</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>66577</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>26241</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>15730</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="n">
+        <v>88435</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="n">
+        <v>46270</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>2019-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Zoll_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Zoll_driver_summary.xlsx
@@ -563,157 +563,171 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B13" s="6" t="n">
-        <v>96526</v>
+        <v>18721</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E13" s="4" t="n">
-        <v/>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>328411</v>
+        <v>69578</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E14" s="4" t="n">
-        <v/>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>143808</v>
+        <v>329845</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E15" s="4" t="n">
-        <v/>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>287148</v>
+        <v>143808</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E16" s="4" t="n">
-        <v/>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>69578</v>
+        <v>287148</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E17" s="4" t="n">
-        <v/>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>67111</v>
+        <v>96526</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-13</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>13016</v>
+        <v>67111</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E19" s="4" t="n">
-        <v/>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>18721</v>
+        <v>66577</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>66577</v>
+        <v>15734</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
@@ -732,18 +746,18 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>15730</v>
+        <v>88435</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
@@ -751,26 +765,26 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>88435</v>
+        <v>13016</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-07-29</t>
         </is>
       </c>
     </row>

--- a/Output/roaming_impact_reports_per_acct/Zoll_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Zoll_driver_summary.xlsx
@@ -52,7 +52,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -63,9 +63,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,335 +480,72 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.110.0.5</t>
+          <t>Realtek RTL8852AE WiFi 6 802.11ax PCIe Adapter - 6001.10.356.0</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>93.3</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Realtek RTL8852AE WiFi 6 802.11ax PCIe Adapter - 6001.10.356.0</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Totals:</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>161</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>98.59999999999999</v>
+      <c r="C4" s="5" t="n">
+        <v>136</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Totals:</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>187</v>
-      </c>
-    </row>
+    <row r="5"/>
     <row r="6"/>
     <row r="7"/>
     <row r="8"/>
     <row r="9"/>
-    <row r="10"/>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+        </is>
+      </c>
+    </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Adapter-Driver</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Total Samples</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr"/>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Good Roaming Calculation (%)</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Driver Vintage</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr"/>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="n">
-        <v>18721</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>2024-07-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>69578</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>2023-08-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>329845</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>2023-05-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>143808</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>2023-01-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>287148</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>96526</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="n">
-        <v>67111</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>2021-01-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>66577</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>2020-10-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="n">
-        <v>15734</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>2020-09-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="n">
-        <v>26241</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>2019-12-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="n">
-        <v>88435</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="n">
-        <v>13016</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>2019-07-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
-        </is>
-      </c>
-      <c r="B25" s="6" t="n">
-        <v>46270</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>2019-04-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Zoll_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Zoll_driver_summary.xlsx
@@ -52,7 +52,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -63,6 +63,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -428,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +439,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="64" customWidth="1" min="1" max="1"/>
+    <col width="66" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
@@ -480,72 +483,240 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Realtek RTL8852AE WiFi 6 802.11ax PCIe Adapter - 6001.10.356.0</t>
+          <t>Realtek RTL8852BE WiFi 6 802.11ax PCIe Adapter - 6001.15.123.330</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>98.8</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Realtek RTL8852AE WiFi 6 802.11ax PCIe Adapter - 6001.10.356.0</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>209</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5"/>
+      <c r="B5" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>210</v>
+      </c>
+    </row>
     <row r="6"/>
     <row r="7"/>
     <row r="8"/>
     <row r="9"/>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10"/>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Good Drivers (Roaming &gt; 99.8%)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Adapter-Driver</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>Total Samples</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr"/>
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>Good Roaming Calculation (%)</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>Driver Vintage</t>
         </is>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Realtek RTL8852BE WiFi 6 802.11ax PCIe Adapter - 6001.15.123.322</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>16989</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Realtek RTL8852BE WiFi 6 802.11ax PCIe Adapter - 6001.15.152.0</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>1033024</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Realtek RTL8852BE WiFi 6 802.11ax PCIe Adapter - 6001.15.149.0</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>81427</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Realtek RTL8852BE WiFi 6 802.11ax PCIe Adapter - 6001.15.144.0</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>17672</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>2023-07-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Realtek RTL8852BE WiFi 6 802.11ax PCIe Adapter - 6001.15.143.0</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>326032</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Realtek RTL8852BE WiFi 6 802.11ax PCIe Adapter - 6001.15.141.0</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>48191</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Realtek RTL8852BE WiFi 6 802.11ax PCIe Adapter - 6001.15.128.0</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>82442</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Realtek RTL8852BE WiFi 6 802.11ax PCIe Adapter - 6001.15.124.0</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>11789</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>2022-07-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Zoll_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Zoll_driver_summary.xlsx
@@ -52,7 +52,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -63,9 +63,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +436,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="66" customWidth="1" min="1" max="1"/>
+    <col width="64" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
@@ -483,240 +480,72 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Realtek RTL8852BE WiFi 6 802.11ax PCIe Adapter - 6001.15.123.330</t>
+          <t>Realtek RTL8852AE WiFi 6 802.11ax PCIe Adapter - 6001.10.356.0</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Realtek RTL8852AE WiFi 6 802.11ax PCIe Adapter - 6001.10.356.0</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Totals:</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>209</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>98.2</v>
+      <c r="C4" s="5" t="n">
+        <v>157</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Totals:</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>210</v>
-      </c>
-    </row>
+    <row r="5"/>
     <row r="6"/>
     <row r="7"/>
     <row r="8"/>
     <row r="9"/>
-    <row r="10"/>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+        </is>
+      </c>
+    </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Adapter-Driver</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Total Samples</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr"/>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Good Roaming Calculation (%)</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Driver Vintage</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr"/>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Realtek RTL8852BE WiFi 6 802.11ax PCIe Adapter - 6001.15.123.322</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="n">
-        <v>16989</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>2024-06-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Realtek RTL8852BE WiFi 6 802.11ax PCIe Adapter - 6001.15.152.0</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>1033024</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>2024-04-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Realtek RTL8852BE WiFi 6 802.11ax PCIe Adapter - 6001.15.149.0</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>81427</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>2023-12-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Realtek RTL8852BE WiFi 6 802.11ax PCIe Adapter - 6001.15.144.0</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>17672</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>2023-07-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Realtek RTL8852BE WiFi 6 802.11ax PCIe Adapter - 6001.15.143.0</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>326032</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>2023-06-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Realtek RTL8852BE WiFi 6 802.11ax PCIe Adapter - 6001.15.141.0</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>48191</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>2023-04-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Realtek RTL8852BE WiFi 6 802.11ax PCIe Adapter - 6001.15.128.0</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="n">
-        <v>82442</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Realtek RTL8852BE WiFi 6 802.11ax PCIe Adapter - 6001.15.124.0</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>11789</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>2022-07-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Zoll_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Zoll_driver_summary.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,15 +437,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="64" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="48" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -487,10 +487,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5"/>
@@ -519,33 +519,97 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>adapter-driver</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>good sum</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>critical sum</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>warning sum</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>client count</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>total sum</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>adapter</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>good roaming calculation (%)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>driver vintage</t>
         </is>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Realtek RTL8852AE WiFi 6 802.11ax PCIe Adapter - 6001.10.356.1</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1071383</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4419</v>
+      </c>
+      <c r="D12" t="n">
+        <v>180</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1644</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1075982</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>realtek rtl8852ae wifi 6 802.11ax pcie adapter</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>6001.10.356.1</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2024-05-12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Zoll_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Zoll_driver_summary.xlsx
@@ -487,10 +487,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>130</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5"/>
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1071383</v>
+        <v>1074341</v>
       </c>
       <c r="C12" t="n">
-        <v>4419</v>
+        <v>4452</v>
       </c>
       <c r="D12" t="n">
         <v>180</v>
       </c>
       <c r="E12" t="n">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="F12" t="n">
-        <v>1075982</v>
+        <v>1078973</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
